--- a/RPS DB/RPS Data Dictionary.xlsx
+++ b/RPS DB/RPS Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lach\Desktop\Schoolwork Swinburne\RockPaperScissorsProject\RPS DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9AF8B-7F7B-41C8-8640-D0363DAAD853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC216AA2-DF22-4698-852B-7C4F48B1A5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="945" windowWidth="30720" windowHeight="17820" activeTab="3" xr2:uid="{88FE8EDF-A098-4F8D-A53B-F4F12E466FAB}"/>
+    <workbookView xWindow="-28920" yWindow="2700" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{88FE8EDF-A098-4F8D-A53B-F4F12E466FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Release1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="69">
   <si>
     <t>Username</t>
   </si>
@@ -159,22 +159,96 @@
     <t>String. Records player1 result.</t>
   </si>
   <si>
-    <t>String. Records player2 result.</t>
-  </si>
-  <si>
     <t>GameCode</t>
   </si>
   <si>
-    <t>Randomly generated at time of creation. Used to help second player join game.</t>
-  </si>
-  <si>
     <t>Player2Name</t>
   </si>
   <si>
     <t>Player1Name</t>
   </si>
   <si>
-    <t>"David"</t>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULLABLE</t>
+  </si>
+  <si>
+    <t>NOT NULL
+CHECK LENGTH = 6</t>
+  </si>
+  <si>
+    <t>Randomly generated at time of creation. Used to help second player join game.
+only required in multiplayer</t>
+  </si>
+  <si>
+    <t>String. Records player2 result.
+only required in multiplayer</t>
+  </si>
+  <si>
+    <t>string of  rock, paper, or scissors for CPUChoice
+only required VS CPU</t>
+  </si>
+  <si>
+    <t>Player2Choice</t>
+  </si>
+  <si>
+    <t>string of  rock, paper, or scissors for CPUChoice
+only required in Multiplayer</t>
+  </si>
+  <si>
+    <t>NULLABLE
+CHECK IN ("rock", "paper", "scissors")</t>
+  </si>
+  <si>
+    <t>NOT NULL
+CHECK IN ("rock", "paper", "scissors")</t>
+  </si>
+  <si>
+    <t>string of  rock, paper, or scissors PlayerChoice
+Cannot be NULL</t>
+  </si>
+  <si>
+    <t>NOT NULL
+CHECK IN (1, 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>NULLABLE
+CHECK IN ("Win", "Lose", "Draw")</t>
+  </si>
+  <si>
+    <t>NOT NULL
+CHECK IN ("Win", "Lose", "Draw")</t>
+  </si>
+  <si>
+    <t>NOT NULL
+CHECK IN (1, 3, 5)</t>
+  </si>
+  <si>
+    <t>NULLABLE
+CHECK LENGTH = 6</t>
+  </si>
+  <si>
+    <t>NOT NULL
+CHECK LENGTH =19</t>
+  </si>
+  <si>
+    <t>"Bartholomeusz"</t>
   </si>
 </sst>
 </file>
@@ -488,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,6 +705,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,351 +1746,434 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CB79A-D56F-4211-97F3-4642CD9B8B58}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="15" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="79.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="17" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="18">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="C3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="18">
+        <v>50</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="K3" s="54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="18">
-        <v>30</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="19" t="s">
+    <row r="4" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="18">
+        <v>50</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="K4" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="C5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="K5" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E6" s="21">
         <v>19</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="40">
+      <c r="K6" s="58">
         <v>1.4895833333333333</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="21">
+    <row r="7" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21">
         <v>6</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="40" t="s">
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21">
+      <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="F8" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="K8" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="21">
         <v>4</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="K9" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="D10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="21">
         <v>4</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>7</v>
-      </c>
       <c r="F10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23">
+      <c r="E11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>7</v>
-      </c>
       <c r="F11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="K11" s="61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="23">
-        <v>8</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>7</v>
+      <c r="D12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="23">
+        <v>8</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="34" t="s">
+      <c r="H12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="23">
+        <v>8</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="37">
-        <v>8</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="39" t="s">
+      <c r="D14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="23">
+        <v>8</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
